--- a/data/trans_orig/IP07C28_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AEFC1B-EAD4-426E-A546-85E2403C92DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBF1489-6C2D-490A-9B58-729D142FC655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2D220C63-FD6F-4FB5-820D-C2B126429E04}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ED54A68E-4DD4-4B5B-A2F0-0209A256546E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,39 +68,210 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>0,1%</t>
   </si>
   <si>
@@ -161,175 +332,58 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -405,60 +459,6 @@
   </si>
   <si>
     <t>1,48%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE36D0A4-8FCC-42B1-8626-1C17CDAD2410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AAF9A2-022C-45DD-8DE8-0419B79F2FA5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1240,10 +1240,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>1671</v>
+        <v>31475</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1255,10 +1255,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>1304</v>
+        <v>26566</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1270,10 +1270,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="N10" s="7">
-        <v>2975</v>
+        <v>58041</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -1291,10 +1291,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>3847</v>
+        <v>5805</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -1306,10 +1306,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>1898</v>
+        <v>4222</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -1321,10 +1321,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>5745</v>
+        <v>10027</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -1342,49 +1342,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>969</v>
+        <v>2397</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>1627</v>
+        <v>2965</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,40 +1393,40 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>177845</v>
+        <v>1699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>126761</v>
+        <v>1616</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>383</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>304605</v>
+        <v>3315</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>47</v>
@@ -1444,49 +1444,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>41473</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1029</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="7">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7">
-        <v>37924</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1029</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="M14" s="7">
-        <v>85</v>
-      </c>
-      <c r="N14" s="7">
-        <v>79397</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,99 +1495,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>225805</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>394349</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D16" s="7">
-        <v>2397</v>
+        <v>177845</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7">
+        <v>176</v>
+      </c>
+      <c r="I16" s="7">
+        <v>126761</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>568</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>383</v>
+      </c>
+      <c r="N16" s="7">
+        <v>304605</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2965</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>66</v>
@@ -1599,49 +1599,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>1699</v>
+        <v>41473</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>1616</v>
+        <v>37924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="N17" s="7">
-        <v>3315</v>
+        <v>79397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,49 +1650,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1671</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1029</v>
+        <v>1304</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>1029</v>
+        <v>2975</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,49 +1701,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>31475</v>
+        <v>3847</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>26566</v>
+        <v>1898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>58041</v>
+        <v>5745</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,46 +1752,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>5805</v>
+        <v>969</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>4222</v>
+        <v>658</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>10027</v>
+        <v>1627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>97</v>
@@ -1803,49 +1803,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>225805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>394349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="D22" s="7">
-        <v>4068</v>
+        <v>209319</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>98</v>
@@ -1871,10 +1871,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="I22" s="7">
-        <v>1872</v>
+        <v>153327</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>101</v>
@@ -1886,10 +1886,10 @@
         <v>103</v>
       </c>
       <c r="M22" s="7">
-        <v>8</v>
+        <v>455</v>
       </c>
       <c r="N22" s="7">
-        <v>5940</v>
+        <v>362646</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>104</v>
@@ -1907,10 +1907,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7">
-        <v>5546</v>
+        <v>47278</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>107</v>
@@ -1922,10 +1922,10 @@
         <v>109</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I23" s="7">
-        <v>3513</v>
+        <v>42146</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>110</v>
@@ -1937,10 +1937,10 @@
         <v>112</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="N23" s="7">
-        <v>9059</v>
+        <v>89424</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>113</v>
@@ -1958,49 +1958,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>969</v>
+        <v>4068</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>1687</v>
+        <v>1872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>2656</v>
+        <v>5940</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,49 +2009,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>209319</v>
+        <v>5546</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>153327</v>
+        <v>3513</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>362646</v>
+        <v>9059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,28 +2060,28 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>47278</v>
+        <v>969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>42146</v>
+        <v>1687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>136</v>
@@ -2090,10 +2090,10 @@
         <v>137</v>
       </c>
       <c r="M26" s="7">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>89424</v>
+        <v>2656</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>138</v>
@@ -2117,13 +2117,13 @@
         <v>267180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2132,13 +2132,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>577</v>
@@ -2147,13 +2147,13 @@
         <v>469726</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C28_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBF1489-6C2D-490A-9B58-729D142FC655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D568D5-0462-4416-A77B-BBA7E9C0B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ED54A68E-4DD4-4B5B-A2F0-0209A256546E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41631B86-9E22-4DFB-8265-8C5409A60759}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="138">
   <si>
     <t>Menores según frecuencia de cansancio para realizar lo que te gusta en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -65,400 +65,391 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +460,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -565,39 +556,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -649,7 +640,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -760,13 +751,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -775,6 +759,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -839,19 +830,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AAF9A2-022C-45DD-8DE8-0419B79F2FA5}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C985C421-2E68-447F-ACF7-809C02E1551F}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1240,49 +1251,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7">
-        <v>31475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26566</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
-      </c>
-      <c r="N10" s="7">
-        <v>58041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,49 +1296,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7">
-        <v>5805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,49 +1341,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>568</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,49 +1386,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,47 +1433,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,102 +1476,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>177845</v>
+        <v>969</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>126761</v>
+        <v>1687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>383</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>304605</v>
+        <v>2656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,49 +1574,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>41473</v>
+        <v>4348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>37924</v>
+        <v>1616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>79397</v>
+        <v>5963</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,46 +1628,46 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1671</v>
+        <v>2397</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>1304</v>
+        <v>727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>2975</v>
+        <v>3123</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,49 +1676,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>3847</v>
+        <v>15046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>1898</v>
+        <v>13331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N19" s="7">
-        <v>5745</v>
+        <v>28377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,49 +1727,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D20" s="7">
-        <v>969</v>
+        <v>76589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I20" s="7">
-        <v>658</v>
+        <v>54306</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="N20" s="7">
-        <v>1627</v>
+        <v>130895</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,102 +1778,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>225805</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>483</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>394349</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>209319</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>153327</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>362646</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,49 +1882,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>47278</v>
+        <v>1198</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>42146</v>
+        <v>1898</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="M23" s="7">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>89424</v>
+        <v>3096</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,49 +1933,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1671</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1146</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="7">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
-        <v>4068</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1872</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="7">
-        <v>8</v>
-      </c>
       <c r="N24" s="7">
-        <v>5940</v>
+        <v>2817</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,49 +1984,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>5546</v>
+        <v>32232</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>3513</v>
+        <v>28815</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="N25" s="7">
-        <v>9059</v>
+        <v>61048</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,49 +2035,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D26" s="7">
-        <v>969</v>
+        <v>132730</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="I26" s="7">
-        <v>1687</v>
+        <v>99021</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="N26" s="7">
-        <v>2656</v>
+        <v>231751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,55 +2086,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>969</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1687</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" s="7">
+        <v>4</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2656</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5546</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3513</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="7">
+        <v>12</v>
+      </c>
+      <c r="N29" s="7">
+        <v>9059</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4068</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1872</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8</v>
+      </c>
+      <c r="N30" s="7">
+        <v>5940</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7">
+        <v>47278</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="7">
+        <v>48</v>
+      </c>
+      <c r="I31" s="7">
+        <v>42146</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" s="7">
+        <v>98</v>
+      </c>
+      <c r="N31" s="7">
+        <v>89424</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>245</v>
+      </c>
+      <c r="D32" s="7">
+        <v>209319</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="7">
+        <v>210</v>
+      </c>
+      <c r="I32" s="7">
+        <v>153327</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="7">
+        <v>455</v>
+      </c>
+      <c r="N32" s="7">
+        <v>362646</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>267180</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>577</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>469726</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C28_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D568D5-0462-4416-A77B-BBA7E9C0B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF6694E-08A9-4C54-885A-9F637398D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41631B86-9E22-4DFB-8265-8C5409A60759}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ABB6647-D740-4F81-BB27-66BCD0E950C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
   <si>
     <t>Menores según frecuencia de cansancio para realizar lo que te gusta en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -98,7 +98,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>5,32%</t>
   </si>
   <si>
     <t>2,35%</t>
@@ -107,346 +107,352 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>6,09%</t>
+    <t>6,55%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -861,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C985C421-2E68-447F-ACF7-809C02E1551F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CA2595-1808-4E2E-A9C9-56E419A08E6D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1664,10 +1670,10 @@
         <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1688,13 @@
         <v>15046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -1697,13 +1703,13 @@
         <v>13331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -1712,13 +1718,13 @@
         <v>28377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,13 +1739,13 @@
         <v>76589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -1748,13 +1754,13 @@
         <v>54306</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>163</v>
@@ -1763,13 +1769,13 @@
         <v>130895</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1790,13 @@
         <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -1799,13 +1805,13 @@
         <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
@@ -1814,18 +1820,18 @@
         <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1840,10 +1846,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1855,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1870,10 +1876,10 @@
         <v>19</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1894,13 @@
         <v>1198</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -1903,13 +1909,13 @@
         <v>1898</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -1918,13 +1924,13 @@
         <v>3096</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1945,13 @@
         <v>1671</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -1954,13 +1960,13 @@
         <v>1146</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -1969,13 +1975,13 @@
         <v>2817</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1996,13 @@
         <v>32232</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2005,13 +2011,13 @@
         <v>28815</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -2020,13 +2026,13 @@
         <v>61048</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2047,13 @@
         <v>132730</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>140</v>
@@ -2056,13 +2062,13 @@
         <v>99021</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>292</v>
@@ -2071,13 +2077,13 @@
         <v>231751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2098,13 @@
         <v>167832</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>175</v>
@@ -2107,13 +2113,13 @@
         <v>130880</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>363</v>
@@ -2122,13 +2128,13 @@
         <v>298712</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2151,13 @@
         <v>969</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2160,13 +2166,13 @@
         <v>1687</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -2175,13 +2181,13 @@
         <v>2656</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2202,13 @@
         <v>5546</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2211,13 +2217,13 @@
         <v>3513</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2226,13 +2232,13 @@
         <v>9059</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2253,13 @@
         <v>4068</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2262,13 +2268,13 @@
         <v>1872</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -2277,13 +2283,13 @@
         <v>5940</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2304,13 @@
         <v>47278</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H31" s="7">
         <v>48</v>
@@ -2313,13 +2319,13 @@
         <v>42146</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M31" s="7">
         <v>98</v>
@@ -2328,13 +2334,13 @@
         <v>89424</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2355,13 @@
         <v>209319</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H32" s="7">
         <v>210</v>
@@ -2364,13 +2370,13 @@
         <v>153327</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>455</v>
@@ -2379,13 +2385,13 @@
         <v>362646</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2406,13 @@
         <v>267180</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>270</v>
@@ -2415,13 +2421,13 @@
         <v>202546</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>577</v>
@@ -2430,18 +2436,18 @@
         <v>469726</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C28_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C28_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF6694E-08A9-4C54-885A-9F637398D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BB00FD-C3D4-459B-A809-7730E2E15882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ABB6647-D740-4F81-BB27-66BCD0E950C4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F94263EE-3410-4BCA-BBFC-C5E75C20751D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="131">
   <si>
     <t>Menores según frecuencia de cansancio para realizar lo que te gusta en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,22 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Muchísimo</t>
+    <t>Siempre</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>Nada</t>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Nunca</t>
   </si>
   <si>
     <t>3-7</t>
@@ -92,367 +92,340 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -867,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CA2595-1808-4E2E-A9C9-56E419A08E6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A24892-6387-4FE1-A4B4-4E85F242DCD4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1529,10 +1502,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>969</v>
+        <v>40837</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1544,10 +1517,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>1687</v>
+        <v>69101</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1559,10 +1532,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="N16" s="7">
-        <v>2656</v>
+        <v>109938</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1580,10 +1553,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>4348</v>
+        <v>25685</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1595,34 +1568,34 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>1616</v>
+        <v>24326</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="N17" s="7">
-        <v>5963</v>
+        <v>50011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,49 +1604,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>2397</v>
+        <v>1403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>727</v>
+        <v>4392</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>3123</v>
+        <v>5795</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,49 +1655,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>15046</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>13331</v>
+        <v>1545</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>28377</v>
+        <v>1545</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,49 +1706,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>76589</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>70</v>
-      </c>
-      <c r="I20" s="7">
-        <v>54306</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="7">
-        <v>163</v>
-      </c>
-      <c r="N20" s="7">
-        <v>130895</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,102 +1757,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>76878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="7">
+        <v>119</v>
+      </c>
+      <c r="I22" s="7">
+        <v>107940</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="7">
+        <v>235</v>
+      </c>
+      <c r="N22" s="7">
+        <v>184817</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,25 +1861,25 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7">
-        <v>1198</v>
+        <v>63156</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="I23" s="7">
-        <v>1898</v>
+        <v>59634</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>68</v>
@@ -1918,10 +1891,10 @@
         <v>70</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="N23" s="7">
-        <v>3096</v>
+        <v>122789</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>71</v>
@@ -1939,49 +1912,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>1671</v>
+        <v>2513</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>1146</v>
+        <v>4686</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>2817</v>
+        <v>7200</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,49 +1963,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>32232</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>83</v>
       </c>
       <c r="H25" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>28815</v>
+        <v>165</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>165</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="7">
-        <v>62</v>
-      </c>
-      <c r="N25" s="7">
-        <v>61048</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,49 +2014,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>132730</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>358</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>358</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="7">
-        <v>140</v>
-      </c>
-      <c r="I26" s="7">
-        <v>99021</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="7">
-        <v>292</v>
-      </c>
-      <c r="N26" s="7">
-        <v>231751</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,49 +2065,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>188</v>
       </c>
-      <c r="D27" s="7">
-        <v>167832</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>172783</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>363</v>
       </c>
       <c r="N27" s="7">
-        <v>298712</v>
+        <v>315329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,49 +2118,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D28" s="7">
-        <v>969</v>
+        <v>117715</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="7">
+        <v>202</v>
+      </c>
+      <c r="I28" s="7">
+        <v>177040</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M28" s="7">
+        <v>376</v>
+      </c>
+      <c r="N28" s="7">
+        <v>294755</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1687</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M28" s="7">
-        <v>4</v>
-      </c>
-      <c r="N28" s="7">
-        <v>2656</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,49 +2169,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D29" s="7">
-        <v>5546</v>
+        <v>88841</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="7">
+        <v>89</v>
+      </c>
+      <c r="I29" s="7">
+        <v>83959</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>177</v>
+      </c>
+      <c r="N29" s="7">
+        <v>172800</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3513</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M29" s="7">
-        <v>12</v>
-      </c>
-      <c r="N29" s="7">
-        <v>9059</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,49 +2220,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>4068</v>
+        <v>3916</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="7">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9079</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="7">
-        <v>4</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1872</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>20</v>
+      </c>
+      <c r="N30" s="7">
+        <v>12995</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="M30" s="7">
-        <v>8</v>
-      </c>
-      <c r="N30" s="7">
-        <v>5940</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,49 +2271,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>47278</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1710</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1710</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="7">
-        <v>48</v>
-      </c>
-      <c r="I31" s="7">
-        <v>42146</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M31" s="7">
-        <v>98</v>
-      </c>
-      <c r="N31" s="7">
-        <v>89424</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,49 +2322,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>209319</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H32" s="7">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>153327</v>
+        <v>358</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M32" s="7">
-        <v>455</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>362646</v>
+        <v>358</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,54 +2373,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="7">
         <v>307</v>
       </c>
-      <c r="D33" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>270</v>
-      </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
